--- a/Suggestionpoint_MasterExpo.xlsx
+++ b/Suggestionpoint_MasterExpo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>S.N</t>
   </si>
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t>When CTX Type is set to GSTIN, and both the selected State and CTX State are Delhi, entering an invalid Reg No. in the Reg No. text box should trigger an error message. However, the form is currently saved successfully without validation, which is not the expected behavior.</t>
+  </si>
+  <si>
+    <t>S_08</t>
+  </si>
+  <si>
+    <t>Consignee</t>
+  </si>
+  <si>
+    <t>In the Masters &gt; Consignee section, the State textbox should provide auto-suggestions for state names, but currently, it is not displaying any suggestions.</t>
+  </si>
+  <si>
+    <t>S_09</t>
+  </si>
+  <si>
+    <t>In the Masters &gt; Consignee section, the Pincode textbox should accept only a 6-digit number as per the standard format. However, it currently allows up to 10 digits to be entered.</t>
+  </si>
+  <si>
+    <t>S_10</t>
+  </si>
+  <si>
+    <t>In the Masters &gt; Consignee section, the Country textbox is displayed with a red border, indicating it is mandatory. However, it also shows a green border, which typically represents an optional field, causing inconsistency in field validation indicators.</t>
+  </si>
+  <si>
+    <t>S_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Masters &gt; Consignee section, user click on clear button all the field clear properly ,but its clear only Party name ,Extended Name and Related Third Party textboxex </t>
   </si>
 </sst>
 </file>
@@ -473,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +702,98 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45887</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45887</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45887</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45887</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
